--- a/data/nc/conditional_sampling_ncdmf/datasheets/cond_c4.xlsx
+++ b/data/nc/conditional_sampling_ncdmf/datasheets/cond_c4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahaines\Desktop\Method Comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/data_analytics_research/shellbase_with_usc/data/nc/conditional_sampling_ncdmf/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07571C78-2A3A-6448-96D7-0F432BCECC56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="75" windowWidth="14730" windowHeight="15285"/>
+    <workbookView xWindow="7860" yWindow="500" windowWidth="14740" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COND. FC" sheetId="1" r:id="rId1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>STATION</t>
   </si>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -301,6 +302,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -336,6 +354,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,28 +546,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1" codeName="Sheet4"/>
   <dimension ref="A1:LM38"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane xSplit="3" topLeftCell="LG1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="LM9" sqref="LM9"/>
+      <selection pane="topRight" activeCell="LH15" sqref="LH15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="5"/>
-    <col min="2" max="2" width="8.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" style="5" customWidth="1"/>
-    <col min="4" max="138" width="8.33203125" style="5" customWidth="1"/>
-    <col min="139" max="150" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="151" max="170" width="11.77734375" style="5"/>
-    <col min="171" max="172" width="11.77734375" style="9"/>
-    <col min="173" max="16384" width="11.77734375" style="5"/>
+    <col min="1" max="1" width="11.7109375" style="5"/>
+    <col min="2" max="2" width="8.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="5" customWidth="1"/>
+    <col min="4" max="138" width="8.28515625" style="5" customWidth="1"/>
+    <col min="139" max="150" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="151" max="170" width="11.7109375" style="5"/>
+    <col min="171" max="172" width="11.7109375" style="9"/>
+    <col min="173" max="16384" width="11.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:325" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:325" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -1587,7 +1622,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="2" spans="1:325" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:325" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -1874,7 +1909,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:325" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:325" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -2176,7 +2211,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="4" spans="1:325" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:325" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -2318,8 +2353,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:325" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:325" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="FK5" s="3"/>
@@ -2460,7 +2498,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:325" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:325" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
@@ -2902,7 +2940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:325" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:325" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
@@ -3593,7 +3631,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="8" spans="1:325" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:325" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
@@ -3744,8 +3782,11 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:325" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:325" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
       <c r="FK9" s="9"/>
@@ -3801,7 +3842,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:325" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:325" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="14">
         <v>6</v>
@@ -4388,7 +4429,7 @@
       <c r="JJ10" s="14"/>
       <c r="JM10" s="9"/>
     </row>
-    <row r="11" spans="1:325" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:325" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14">
         <v>5</v>
@@ -4954,7 +4995,7 @@
       </c>
       <c r="JJ11" s="14"/>
     </row>
-    <row r="12" spans="1:325" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:325" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14">
         <v>8</v>
@@ -5376,7 +5417,7 @@
       <c r="JI12" s="14"/>
       <c r="JJ12" s="14"/>
     </row>
-    <row r="13" spans="1:325" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:325" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14">
         <v>11</v>
@@ -5654,7 +5695,7 @@
       <c r="JI13" s="14"/>
       <c r="JJ13" s="14"/>
     </row>
-    <row r="14" spans="1:325" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:325" x14ac:dyDescent="0.15">
       <c r="B14" s="5">
         <v>9</v>
       </c>
@@ -5965,7 +6006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:325" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:325" x14ac:dyDescent="0.15">
       <c r="B15" s="5">
         <v>9</v>
       </c>
@@ -6255,7 +6296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:325" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:325" x14ac:dyDescent="0.15">
       <c r="B16" s="5">
         <v>3</v>
       </c>
@@ -6280,7 +6321,7 @@
       <c r="GW16" s="9"/>
       <c r="HO16" s="9"/>
     </row>
-    <row r="17" spans="2:223" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:223" x14ac:dyDescent="0.15">
       <c r="B17" s="5">
         <v>4</v>
       </c>
@@ -6305,7 +6346,7 @@
       <c r="GW17" s="9"/>
       <c r="HO17" s="9"/>
     </row>
-    <row r="18" spans="2:223" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:223" x14ac:dyDescent="0.15">
       <c r="B18" s="5">
         <v>7</v>
       </c>
@@ -6322,7 +6363,7 @@
       <c r="GW18" s="9"/>
       <c r="HO18" s="9"/>
     </row>
-    <row r="19" spans="2:223" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:223" x14ac:dyDescent="0.15">
       <c r="B19" s="5">
         <v>9</v>
       </c>
@@ -6342,7 +6383,7 @@
       <c r="GW19" s="9"/>
       <c r="HO19" s="9"/>
     </row>
-    <row r="20" spans="2:223" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:223" x14ac:dyDescent="0.15">
       <c r="B20" s="5">
         <v>13</v>
       </c>
@@ -6359,7 +6400,7 @@
       <c r="GW20" s="9"/>
       <c r="HO20" s="9"/>
     </row>
-    <row r="21" spans="2:223" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:223" x14ac:dyDescent="0.15">
       <c r="FK21" s="9"/>
       <c r="FL21" s="9"/>
       <c r="GF21" s="9"/>
@@ -6370,7 +6411,7 @@
       <c r="GW21" s="9"/>
       <c r="HO21" s="9"/>
     </row>
-    <row r="22" spans="2:223" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:223" x14ac:dyDescent="0.15">
       <c r="FK22" s="9"/>
       <c r="FL22" s="9"/>
       <c r="GF22" s="9"/>
@@ -6381,7 +6422,7 @@
       <c r="GW22" s="9"/>
       <c r="HO22" s="9"/>
     </row>
-    <row r="23" spans="2:223" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:223" x14ac:dyDescent="0.15">
       <c r="GF23" s="9"/>
       <c r="GG23" s="9"/>
       <c r="GT23" s="9"/>
@@ -6390,7 +6431,7 @@
       <c r="GW23" s="9"/>
       <c r="HO23" s="9"/>
     </row>
-    <row r="24" spans="2:223" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:223" x14ac:dyDescent="0.15">
       <c r="GF24" s="9"/>
       <c r="GG24" s="9"/>
       <c r="GT24" s="9"/>
@@ -6399,69 +6440,69 @@
       <c r="GW24" s="9"/>
       <c r="HO24" s="9"/>
     </row>
-    <row r="25" spans="2:223" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:223" x14ac:dyDescent="0.15">
       <c r="GF25" s="9"/>
       <c r="GG25" s="9"/>
       <c r="HO25" s="9"/>
     </row>
-    <row r="26" spans="2:223" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:223" x14ac:dyDescent="0.15">
       <c r="GF26" s="9"/>
       <c r="GG26" s="9"/>
       <c r="HO26" s="9"/>
     </row>
-    <row r="27" spans="2:223" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:223" x14ac:dyDescent="0.15">
       <c r="GF27" s="9"/>
       <c r="GG27" s="9"/>
       <c r="HO27" s="9"/>
     </row>
-    <row r="28" spans="2:223" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:223" x14ac:dyDescent="0.15">
       <c r="GF28" s="9"/>
       <c r="GG28" s="9"/>
       <c r="HO28" s="9"/>
     </row>
-    <row r="29" spans="2:223" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:223" x14ac:dyDescent="0.15">
       <c r="GF29" s="9"/>
       <c r="GG29" s="9"/>
       <c r="HO29" s="9"/>
     </row>
-    <row r="30" spans="2:223" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:223" x14ac:dyDescent="0.15">
       <c r="GF30" s="9"/>
       <c r="GG30" s="9"/>
     </row>
-    <row r="31" spans="2:223" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:223" x14ac:dyDescent="0.15">
       <c r="GF31" s="9"/>
       <c r="GG31" s="9"/>
     </row>
-    <row r="32" spans="2:223" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:223" x14ac:dyDescent="0.15">
       <c r="GF32" s="9"/>
       <c r="GG32" s="9"/>
     </row>
-    <row r="33" spans="188:189" x14ac:dyDescent="0.2">
+    <row r="33" spans="188:189" x14ac:dyDescent="0.15">
       <c r="GF33" s="9"/>
       <c r="GG33" s="9"/>
     </row>
-    <row r="34" spans="188:189" x14ac:dyDescent="0.2">
+    <row r="34" spans="188:189" x14ac:dyDescent="0.15">
       <c r="GF34" s="9"/>
       <c r="GG34" s="9"/>
     </row>
-    <row r="35" spans="188:189" x14ac:dyDescent="0.2">
+    <row r="35" spans="188:189" x14ac:dyDescent="0.15">
       <c r="GF35" s="9"/>
       <c r="GG35" s="9"/>
     </row>
-    <row r="36" spans="188:189" x14ac:dyDescent="0.2">
+    <row r="36" spans="188:189" x14ac:dyDescent="0.15">
       <c r="GF36" s="9"/>
       <c r="GG36" s="9"/>
     </row>
-    <row r="37" spans="188:189" x14ac:dyDescent="0.2">
+    <row r="37" spans="188:189" x14ac:dyDescent="0.15">
       <c r="GF37" s="9"/>
       <c r="GG37" s="9"/>
     </row>
-    <row r="38" spans="188:189" x14ac:dyDescent="0.2">
+    <row r="38" spans="188:189" x14ac:dyDescent="0.15">
       <c r="GF38" s="9"/>
       <c r="GG38" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A2:JJ19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:JJ19">
     <sortCondition ref="A2:A19"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
